--- a/excel_with_subclasses/without_zeros/governorate_with_count_without_zeros.xlsx
+++ b/excel_with_subclasses/without_zeros/governorate_with_count_without_zeros.xlsx
@@ -25,7 +25,7 @@
     <t>class</t>
   </si>
   <si>
-    <t>count_P31</t>
+    <t>signifance</t>
   </si>
   <si>
     <t>Q47530375</t>
@@ -422,9 +422,6 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
